--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25f5731293eb6293/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48CE300E-D530-4A9D-856F-BECF819A287D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AEB8A-17F8-4AA7-A6CE-C1F211BF5CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2760" windowWidth="18180" windowHeight="18240" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
+    <workbookView xWindow="3240" yWindow="300" windowWidth="15228" windowHeight="11448" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>asd</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>ngb</t>
+  </si>
+  <si>
+    <t>bgn</t>
   </si>
 </sst>
 </file>
@@ -91,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -107,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,72 +409,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AEB8A-17F8-4AA7-A6CE-C1F211BF5CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44906624-334E-498E-AF42-9B663275339A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="300" windowWidth="15228" windowHeight="11448" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
+    <workbookView xWindow="120" yWindow="228" windowWidth="15228" windowHeight="11448" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>asd</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>bgn</t>
+  </si>
+  <si>
+    <t>nn</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,6 +490,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44906624-334E-498E-AF42-9B663275339A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240E21D-4C6B-4B58-ACD9-A13F6E2A808F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="228" windowWidth="15228" windowHeight="11448" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>asd</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>nn</t>
+  </si>
+  <si>
+    <t>ghg</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,6 +498,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240E21D-4C6B-4B58-ACD9-A13F6E2A808F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A1291E-23BF-4AF8-9147-2AEF4EA58641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="228" windowWidth="15228" windowHeight="11448" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>asd</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>ghg</t>
+  </si>
+  <si>
+    <t>gg</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,6 +506,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A1291E-23BF-4AF8-9147-2AEF4EA58641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5DF6ED-4633-456D-833A-565481AB8202}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="228" windowWidth="15228" windowHeight="11448" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>asd</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>gg</t>
+  </si>
+  <si>
+    <t>hj</t>
+  </si>
+  <si>
+    <t>ggh</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,6 +517,16 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5DF6ED-4633-456D-833A-565481AB8202}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B2DF12-8B0B-4136-8797-2C21FDD2AAF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>asd</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>ggh</t>
+  </si>
+  <si>
+    <t>jw</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +530,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B2DF12-8B0B-4136-8797-2C21FDD2AAF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C0EACF-ED87-46ED-B592-D59CFA77BAD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>asd</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>jw</t>
+  </si>
+  <si>
+    <t>ere</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,6 +538,16 @@
         <v>13</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C0EACF-ED87-46ED-B592-D59CFA77BAD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA1939-637D-43FE-8E0F-86EDC38BBCA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>asd</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>ere</t>
+  </si>
+  <si>
+    <t>trer</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,6 +551,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA1939-637D-43FE-8E0F-86EDC38BBCA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088AFAF2-67CF-42C2-9AFD-3C495B3BFA92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>asd</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>trer</t>
+  </si>
+  <si>
+    <t>ae</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +559,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENTIMENT\Documents\GitHub\Team_G\Schraube_Neu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088AFAF2-67CF-42C2-9AFD-3C495B3BFA92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7385C26F-E8CB-4E9B-AC8C-E8123017A9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>asd</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>ae</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,6 +567,51 @@
         <v>16</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7385C26F-E8CB-4E9B-AC8C-E8123017A9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E97AAE-1EF1-4D65-BD5B-644144A01A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,6 +612,61 @@
         <v>6</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E97AAE-1EF1-4D65-BD5B-644144A01A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE85B56-4382-460A-9BE7-E29F69AE3A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,6 +667,231 @@
         <v>5</v>
       </c>
     </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE85B56-4382-460A-9BE7-E29F69AE3A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C76AFE-FD9C-49C9-9479-174FE2E88A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A89"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,6 +892,76 @@
         <v>6</v>
       </c>
     </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C76AFE-FD9C-49C9-9479-174FE2E88A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00712558-95D8-4B3B-AA6F-9894F3A1A5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A103"/>
+  <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,6 +962,41 @@
         <v>5</v>
       </c>
     </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00712558-95D8-4B3B-AA6F-9894F3A1A5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF335ED-A182-418F-9BD2-BCAFF7C7F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:A113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,6 +997,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF335ED-A182-418F-9BD2-BCAFF7C7F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8DA576-26CD-4202-AA49-9313C166EE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A113"/>
+  <dimension ref="A1:A116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,6 +1012,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schraube_Neu/Catia.xlsx
+++ b/Schraube_Neu/Catia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Team_G\Schraube_Neu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8DA576-26CD-4202-AA49-9313C166EE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C17EC-8EFD-4267-AEA7-B784CD4AB11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5703BF26-22E8-4371-9CE7-48007F905136}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC958E-617F-4934-831F-ECCEA9732B76}">
-  <dimension ref="A1:A116"/>
+  <dimension ref="A1:A119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,6 +1027,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
